--- a/ROSATOM/final/tasks.xlsx
+++ b/ROSATOM/final/tasks.xlsx
@@ -14,18 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>imid</t>
-  </si>
-  <si>
-    <t>uname</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>task</t>
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>FeDOS</t>
+  </si>
+  <si>
+    <t>кек</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>Пожрать</t>
+  </si>
+  <si>
+    <t>21.03.2019</t>
+  </si>
+  <si>
+    <t>20.03.2019</t>
+  </si>
+  <si>
+    <t>03.04.2019</t>
   </si>
 </sst>
 </file>
@@ -383,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +420,75 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
